--- a/data/trans_media/IQ3003_MoAR-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ3003_MoAR-Edad-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 5,61</t>
+          <t>5,06; 5,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,07</t>
+          <t>5,44; 6,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,1</t>
+          <t>5,43; 6,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 5,38</t>
+          <t>4,85; 5,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 6,34</t>
+          <t>5,63; 6,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 5,39</t>
+          <t>5,01; 5,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,12</t>
+          <t>5,49; 6,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 6,14</t>
+          <t>5,62; 6,09</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 5,61</t>
+          <t>5,06; 5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,07</t>
+          <t>5,44; 6,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,1</t>
+          <t>5,43; 6,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 5,38</t>
+          <t>4,85; 5,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 6,34</t>
+          <t>5,63; 6,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 5,39</t>
+          <t>5,01; 5,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,12</t>
+          <t>5,49; 6,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 6,14</t>
+          <t>5,62; 6,09</t>
         </is>
       </c>
     </row>
